--- a/links.xlsx
+++ b/links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\fundsTracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E222DDF0-A982-498E-A476-FE2368745B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FDC8C8-08EE-4656-922E-2542DDEE66F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5295" yWindow="2355" windowWidth="26655" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13935" yWindow="690" windowWidth="20595" windowHeight="20310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>https://events.dancemarathon.com/index.cfm?fuseaction=donorDrive.participant&amp;participantID=810384</t>
   </si>
@@ -145,24 +145,31 @@
   </si>
   <si>
     <t>https://events.dancemarathon.com/index.cfm?fuseaction=donorDrive.participant&amp;participantID=821485</t>
+  </si>
+  <si>
+    <t>https://events.dancemarathon.com/index.cfm?fuseaction=donorDrive.participant&amp;participantID=857336</t>
+  </si>
+  <si>
+    <t>https://events.dancemarathon.com/index.cfm?fuseaction=donorDrive.participant&amp;participantID=857344</t>
+  </si>
+  <si>
+    <t>https://events.dancemarathon.com/index.cfm?fuseaction=donorDrive.participant&amp;participantID=858242</t>
+  </si>
+  <si>
+    <t>https://events.dancemarathon.com/index.cfm?fuseaction=donorDrive.participant&amp;participantID=857348</t>
+  </si>
+  <si>
+    <t>https://events.dancemarathon.com/index.cfm?fuseaction=donorDrive.participant&amp;participantID=857352</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,13 +209,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -490,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:A53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,256 +508,301 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{C8FB7705-4971-469B-B84E-7D944CC3505D}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{89E31400-1CFE-42C2-A4D6-5D784E4A10D8}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{7CA9675C-9DCE-4283-B3D3-F813EEF6D2F3}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{AA1CB8E8-1BCD-4132-8859-75BC5A83C344}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{2DDE7F31-EA1A-4901-BD1B-62142A5632ED}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{C68129AC-4849-44F9-B0FB-0FAC2BD8BC46}"/>
-    <hyperlink ref="A7" r:id="rId7" xr:uid="{2CC6E5EE-8525-4CF8-97BE-439B007199D9}"/>
-    <hyperlink ref="A8" r:id="rId8" xr:uid="{0C94B548-BA97-4549-90DB-BA76AA5CBDB9}"/>
-    <hyperlink ref="A9" r:id="rId9" xr:uid="{3BD4E377-00B4-4AE8-BD70-D5513CE44BF5}"/>
-    <hyperlink ref="A11" r:id="rId10" xr:uid="{7D89DD3F-69FB-4FC8-9E29-9EA9D5497395}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{EA235B65-C36A-4047-90D6-FB19F990B9F8}"/>
-    <hyperlink ref="A13" r:id="rId12" xr:uid="{49445D68-5846-47C2-8C04-3D64E72E4AFF}"/>
-    <hyperlink ref="A14" r:id="rId13" xr:uid="{A6E87175-04D8-4DE1-BC97-6DB40AB085CD}"/>
-    <hyperlink ref="A15" r:id="rId14" xr:uid="{3A3B63D2-4F4D-4586-86C0-1F92AC07D91C}"/>
-    <hyperlink ref="A16" r:id="rId15" xr:uid="{25E0C307-E184-4FFA-8318-9BFA9C98F286}"/>
-    <hyperlink ref="A17" r:id="rId16" xr:uid="{91AD0991-AFE3-4A9D-9D95-84F813B8AF9C}"/>
-    <hyperlink ref="A18" r:id="rId17" xr:uid="{38DD4880-6844-433D-9691-C30F0903ACDA}"/>
-    <hyperlink ref="A19" r:id="rId18" xr:uid="{D939EC6F-26A0-4934-A305-13C056BE704A}"/>
-    <hyperlink ref="A20" r:id="rId19" xr:uid="{69137023-7635-4027-A426-3C2E4BB941F9}"/>
-    <hyperlink ref="A21" r:id="rId20" xr:uid="{348C3FC1-914C-4679-A2A4-7F375146CA76}"/>
-    <hyperlink ref="A22" r:id="rId21" xr:uid="{C6745761-524A-4A15-90AC-97EFE97A9416}"/>
-    <hyperlink ref="A24" r:id="rId22" xr:uid="{838B5A4A-3121-449A-94EA-B6B6A5EF3193}"/>
-    <hyperlink ref="A25" r:id="rId23" xr:uid="{08BDF201-2456-41DF-86A9-BFCAA2A50FAC}"/>
-    <hyperlink ref="A26" r:id="rId24" xr:uid="{E45B4688-7C39-460D-A0A2-71F7734155D0}"/>
-    <hyperlink ref="A27" r:id="rId25" xr:uid="{DFB65B07-365C-463B-B64C-F6306B649833}"/>
-    <hyperlink ref="A28" r:id="rId26" xr:uid="{BC64FAF4-D8A8-46D9-AACF-6DE8DAE22293}"/>
-    <hyperlink ref="A29" r:id="rId27" xr:uid="{F538CD20-A6F6-4EA9-9AEA-6A4CCED88E94}"/>
-    <hyperlink ref="A30" r:id="rId28" xr:uid="{F9B5BC3F-80C7-44D1-BB27-DA963340E9B3}"/>
-    <hyperlink ref="A31" r:id="rId29" xr:uid="{5F8F5534-46B3-4483-AD23-3AC715856E4D}"/>
-    <hyperlink ref="A32" r:id="rId30" xr:uid="{C5DA7824-3A62-4D74-BC4B-0E37C6D833EA}"/>
-    <hyperlink ref="A33" r:id="rId31" xr:uid="{B12FE1F6-95AE-4A5C-A4AB-73FFF1E9C2E8}"/>
-    <hyperlink ref="A34" r:id="rId32" xr:uid="{487CD184-2817-4EAF-A6C5-E99120B5E93E}"/>
-    <hyperlink ref="A35" r:id="rId33" xr:uid="{8DD7C8D4-9379-4F72-9EAE-56440509E761}"/>
-    <hyperlink ref="A36" r:id="rId34" xr:uid="{AC717D2D-4E61-42D1-980A-28292D514CCE}"/>
-    <hyperlink ref="A37" r:id="rId35" xr:uid="{A5406C82-948C-4AA4-BAAA-45A684DA4A91}"/>
-    <hyperlink ref="A38" r:id="rId36" xr:uid="{CE64FEC6-5E0E-480E-BD50-F947924210F4}"/>
-    <hyperlink ref="A39" r:id="rId37" xr:uid="{3DA1EC28-4A54-41BE-9CC7-78626682C1E0}"/>
-    <hyperlink ref="A40" r:id="rId38" xr:uid="{CC44612A-964B-4013-AC35-9893CA3CCC55}"/>
-    <hyperlink ref="A41" r:id="rId39" xr:uid="{60F695D0-B6F6-413B-8E9B-93E8BE0BD41A}"/>
-    <hyperlink ref="A42" r:id="rId40" xr:uid="{AE7A6B2E-4130-406A-B4C2-D5F927EC833A}"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{C7340BD2-B973-4EEB-8691-F4DACE90B08D}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{38856707-C261-4957-8456-07C6F6F7AB6E}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{C16200B2-6D3F-4894-B895-7E5B7B7E6F7C}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{FFF4BFA0-290E-450C-B963-F670DF570780}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{CEBE9624-DF07-4B2C-BB36-27042B78D76D}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{A7868441-7E9E-4E75-8341-23A7BFAC1C91}"/>
+    <hyperlink ref="A7" r:id="rId7" xr:uid="{EADEB3D2-18E5-449B-91FD-6BEEB4DF623F}"/>
+    <hyperlink ref="A8" r:id="rId8" xr:uid="{7ED42430-DA9C-40BB-B9D0-00CAA20A235A}"/>
+    <hyperlink ref="A9" r:id="rId9" xr:uid="{11B453C5-2883-4C84-855B-FACEBCAC7C5C}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{2B85F2DF-900A-4B18-88EE-AB4452F33929}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{EB1059EB-3B92-4C51-81F5-5C65C28E0CA8}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{4535D766-ECCA-4790-BC57-A5CBDDDB77CF}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{AE36586F-857F-4E38-B814-BD8773B18A5B}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{B5CD32AB-4B94-4F04-BC7B-63531314D7EB}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{E8F75832-6E96-41C4-9AD5-14AC7DF6EB74}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{B366B131-5395-435D-B130-5C85900ECABE}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{CD870251-4FC7-464B-8A6B-EAB69737F1C7}"/>
+    <hyperlink ref="A19" r:id="rId18" xr:uid="{24F8E827-7B83-4000-9D3C-402A7551B6F6}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{CD47B385-D713-44D3-98A8-D255A09A92F0}"/>
+    <hyperlink ref="A21" r:id="rId20" xr:uid="{C086B9A1-05E9-42A5-AFD3-C680C6A36686}"/>
+    <hyperlink ref="A22" r:id="rId21" xr:uid="{AA89B1BA-A4C4-479F-9E8B-C60265BB6649}"/>
+    <hyperlink ref="A24" r:id="rId22" xr:uid="{B799F4D7-426C-48CB-AE84-FF8C68DB379C}"/>
+    <hyperlink ref="A25" r:id="rId23" xr:uid="{A4D60E15-8AF9-4FBA-9481-0A3361E9D907}"/>
+    <hyperlink ref="A26" r:id="rId24" xr:uid="{67127977-8063-4BF6-93BB-8394B804666F}"/>
+    <hyperlink ref="A27" r:id="rId25" xr:uid="{33C5088B-DA92-494F-B67F-C91906BDA2AD}"/>
+    <hyperlink ref="A28" r:id="rId26" xr:uid="{0ECC0DFF-2CA3-48E4-A420-E2A053922A6A}"/>
+    <hyperlink ref="A29" r:id="rId27" xr:uid="{FCD40764-DE61-4BF2-AEAF-18A2FBE98625}"/>
+    <hyperlink ref="A30" r:id="rId28" xr:uid="{AB915AAB-AEDD-47E8-A57A-FBE0200CB25F}"/>
+    <hyperlink ref="A31" r:id="rId29" xr:uid="{EAF7ED17-47B0-4929-9B72-6F96821BDB35}"/>
+    <hyperlink ref="A32" r:id="rId30" xr:uid="{0DEE6826-C574-4F62-9759-59D33BB3B99C}"/>
+    <hyperlink ref="A33" r:id="rId31" xr:uid="{CB3379CB-1867-4224-9417-ABCD7623FFC7}"/>
+    <hyperlink ref="A34" r:id="rId32" xr:uid="{A93E3997-D584-4201-99A2-C936AFE33F69}"/>
+    <hyperlink ref="A35" r:id="rId33" xr:uid="{8911A4DD-311C-4D12-AC23-E6D913EF74E3}"/>
+    <hyperlink ref="A36" r:id="rId34" xr:uid="{DE7FF71F-C772-4CDF-968C-5D5782B5755F}"/>
+    <hyperlink ref="A37" r:id="rId35" xr:uid="{6F5F9D78-AB70-4BC1-8BE4-C717AF4370D0}"/>
+    <hyperlink ref="A38" r:id="rId36" xr:uid="{B77857C4-C4D7-45CE-8213-D2C3D6F76415}"/>
+    <hyperlink ref="A39" r:id="rId37" xr:uid="{DFDBCC2B-AEA5-48DA-A7A8-C8E7980B83D8}"/>
+    <hyperlink ref="A40" r:id="rId38" xr:uid="{D0FCC341-510E-4CCB-8CCD-2EF692EC99B1}"/>
+    <hyperlink ref="A41" r:id="rId39" xr:uid="{3ACB3A68-E628-4B3D-892A-012C9325CB80}"/>
+    <hyperlink ref="A42" r:id="rId40" xr:uid="{2EC4F687-397A-49C8-8648-B8F58DA72309}"/>
+    <hyperlink ref="A44" r:id="rId41" xr:uid="{6F886F27-B264-4165-AAE2-FEA2C9133224}"/>
+    <hyperlink ref="A45" r:id="rId42" xr:uid="{7ECADF82-C56F-448E-9F4F-B9AC73C35317}"/>
+    <hyperlink ref="A48" r:id="rId43" xr:uid="{8E50A481-3FAA-49E4-9766-2F40AFEE3216}"/>
+    <hyperlink ref="A50" r:id="rId44" xr:uid="{E088251C-E8A4-4D43-936C-4D845AA739D3}"/>
+    <hyperlink ref="A51" r:id="rId45" xr:uid="{059FE71F-E4FC-4F1F-AC95-0F08B120D8A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
